--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58CD4A6D-A75A-4129-AFAB-996C3CC6B41D}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C60E42-AA91-4F74-A34A-36F6781149B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1st Run" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$I$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$K$146</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,12 @@
   <si>
     <t>rate</t>
   </si>
+  <si>
+    <t>percentcount</t>
+  </si>
+  <si>
+    <t>percentbio</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +180,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,14 +510,18 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,8 +549,14 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -565,8 +584,14 @@
       <c r="I2" s="2">
         <v>2.3610000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>100</v>
+      </c>
+      <c r="K2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -594,8 +619,14 @@
       <c r="I3" s="2">
         <v>1.8540000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -623,8 +654,14 @@
       <c r="I4" s="2">
         <v>1.3340000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>100</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -652,8 +689,14 @@
       <c r="I5" s="2">
         <v>2.3860000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>100</v>
+      </c>
+      <c r="K5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>85</v>
       </c>
@@ -681,8 +724,14 @@
       <c r="I6" s="2">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4">
+        <v>31.808443604284815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>86</v>
       </c>
@@ -710,8 +759,14 @@
       <c r="I7" s="2">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>21.333333333333336</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4.9401386263390048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>87</v>
       </c>
@@ -739,8 +794,14 @@
       <c r="I8" s="2">
         <v>0.28399999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <v>32</v>
+      </c>
+      <c r="K8" s="4">
+        <v>14.316320100819155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>88</v>
       </c>
@@ -768,8 +829,14 @@
       <c r="I9" s="2">
         <v>1.796</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>100</v>
+      </c>
+      <c r="K9" s="4">
+        <v>90.535601764335226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>89</v>
       </c>
@@ -797,8 +864,14 @@
       <c r="I10" s="2">
         <v>1.2490000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="K10" s="4">
+        <v>62.961562696912424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>90</v>
       </c>
@@ -826,8 +899,14 @@
       <c r="I11" s="2">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <v>29.333333333333332</v>
+      </c>
+      <c r="K11" s="4">
+        <v>11.190926275992439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>91</v>
       </c>
@@ -855,8 +934,14 @@
       <c r="I12" s="2">
         <v>0.89200000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <v>34.666666666666671</v>
+      </c>
+      <c r="K12" s="4">
+        <v>44.965343415248896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>92</v>
       </c>
@@ -884,8 +969,14 @@
       <c r="I13" s="2">
         <v>1.7969999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <v>77.333333333333329</v>
+      </c>
+      <c r="K13" s="4">
+        <v>90.586011342155018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>93</v>
       </c>
@@ -913,8 +1004,14 @@
       <c r="I14" s="2">
         <v>1.173</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="4">
+        <v>48</v>
+      </c>
+      <c r="K14" s="4">
+        <v>59.130434782608695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>94</v>
       </c>
@@ -942,8 +1039,14 @@
       <c r="I15" s="2">
         <v>0.38700000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <v>16</v>
+      </c>
+      <c r="K15" s="4">
+        <v>19.50850661625709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>95</v>
       </c>
@@ -971,8 +1074,14 @@
       <c r="I16" s="2">
         <v>1.845</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="K16" s="4">
+        <v>93.005671077504729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>96</v>
       </c>
@@ -1000,8 +1109,14 @@
       <c r="I17" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4">
+        <v>61.333333333333329</v>
+      </c>
+      <c r="K17" s="4">
+        <v>80.655324511657227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>97</v>
       </c>
@@ -1029,8 +1144,14 @@
       <c r="I18" s="2">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <v>45.333333333333329</v>
+      </c>
+      <c r="K18" s="4">
+        <v>48.393194706994329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>98</v>
       </c>
@@ -1058,8 +1179,14 @@
       <c r="I19" s="2">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <v>69.333333333333343</v>
+      </c>
+      <c r="K19" s="4">
+        <v>50.661625708884685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>99</v>
       </c>
@@ -1087,8 +1214,14 @@
       <c r="I20" s="2">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="K20" s="4">
+        <v>16.383112791430374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100</v>
       </c>
@@ -1116,8 +1249,14 @@
       <c r="I21" s="2">
         <v>1.179</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="K21" s="4">
+        <v>59.432892249527413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>101</v>
       </c>
@@ -1145,8 +1284,14 @@
       <c r="I22" s="2">
         <v>0.748</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <v>40</v>
+      </c>
+      <c r="K22" s="4">
+        <v>37.706364209199748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>102</v>
       </c>
@@ -1174,8 +1319,14 @@
       <c r="I23" s="2">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4">
+        <v>10.666666666666668</v>
+      </c>
+      <c r="K23" s="4">
+        <v>8.7208569628229355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>103</v>
       </c>
@@ -1203,8 +1354,14 @@
       <c r="I24" s="2">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4">
+        <v>8</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.1594202898550725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>104</v>
       </c>
@@ -1232,8 +1389,14 @@
       <c r="I25" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.15122873345935728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>105</v>
       </c>
@@ -1261,8 +1424,14 @@
       <c r="I26" s="2">
         <v>0.40699999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <v>40</v>
+      </c>
+      <c r="K26" s="4">
+        <v>20.516698172652802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>106</v>
       </c>
@@ -1290,8 +1459,14 @@
       <c r="I27" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3.0749842470069311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>107</v>
       </c>
@@ -1319,8 +1494,14 @@
       <c r="I28" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.35286704473850034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>108</v>
       </c>
@@ -1348,8 +1529,14 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>109</v>
       </c>
@@ -1377,8 +1564,14 @@
       <c r="I30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>110</v>
       </c>
@@ -1406,8 +1599,14 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>111</v>
       </c>
@@ -1435,8 +1634,14 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>112</v>
       </c>
@@ -1464,8 +1669,14 @@
       <c r="I33" s="2">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.10081915563957151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>113</v>
       </c>
@@ -1493,8 +1704,14 @@
       <c r="I34" s="2">
         <v>0.153</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <v>16</v>
+      </c>
+      <c r="K34" s="4">
+        <v>7.712665406427222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>114</v>
       </c>
@@ -1522,8 +1739,14 @@
       <c r="I35" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.15122873345935728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>115</v>
       </c>
@@ -1551,8 +1774,14 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>116</v>
       </c>
@@ -1580,8 +1809,14 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>117</v>
       </c>
@@ -1609,8 +1844,14 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>118</v>
       </c>
@@ -1638,8 +1879,14 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>119</v>
       </c>
@@ -1667,8 +1914,14 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>120</v>
       </c>
@@ -1696,8 +1949,14 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>121</v>
       </c>
@@ -1725,8 +1984,14 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>122</v>
       </c>
@@ -1754,8 +2019,14 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>123</v>
       </c>
@@ -1783,8 +2054,14 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>124</v>
       </c>
@@ -1812,8 +2089,14 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>125</v>
       </c>
@@ -1841,8 +2124,14 @@
       <c r="I46" s="2">
         <v>0.93700000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <v>100</v>
+      </c>
+      <c r="K46" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>126</v>
       </c>
@@ -1870,8 +2159,14 @@
       <c r="I47" s="2">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <v>100</v>
+      </c>
+      <c r="K47" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>127</v>
       </c>
@@ -1899,8 +2194,14 @@
       <c r="I48" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <v>100</v>
+      </c>
+      <c r="K48" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>209</v>
       </c>
@@ -1928,8 +2229,14 @@
       <c r="I49" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <v>40</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1.4150943396226416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>210</v>
       </c>
@@ -1957,8 +2264,14 @@
       <c r="I50" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <v>50</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.84905660377358494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>211</v>
       </c>
@@ -1986,8 +2299,14 @@
       <c r="I51" s="2">
         <v>1.1459999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <v>100</v>
+      </c>
+      <c r="K51" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>212</v>
       </c>
@@ -2015,8 +2334,14 @@
       <c r="I52" s="2">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <v>100</v>
+      </c>
+      <c r="K52" s="4">
+        <v>39.339622641509436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>213</v>
       </c>
@@ -2044,8 +2369,14 @@
       <c r="I53" s="2">
         <v>0.46700000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <v>50</v>
+      </c>
+      <c r="K53" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>214</v>
       </c>
@@ -2073,8 +2404,14 @@
       <c r="I54" s="2">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <v>100</v>
+      </c>
+      <c r="K54" s="4">
+        <v>26.037735849056602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>215</v>
       </c>
@@ -2102,8 +2439,14 @@
       <c r="I55" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <v>10</v>
+      </c>
+      <c r="K55" s="4">
+        <v>5.6603773584905666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>216</v>
       </c>
@@ -2131,8 +2474,14 @@
       <c r="I56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>217</v>
       </c>
@@ -2160,8 +2509,14 @@
       <c r="I57" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <v>40</v>
+      </c>
+      <c r="K57" s="4">
+        <v>11.886792452830189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>218</v>
       </c>
@@ -2189,8 +2544,14 @@
       <c r="I58" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <v>10</v>
+      </c>
+      <c r="K58" s="4">
+        <v>9.0566037735849072</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>219</v>
       </c>
@@ -2218,8 +2579,14 @@
       <c r="I59" s="2">
         <v>0.32100000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <v>100</v>
+      </c>
+      <c r="K59" s="4">
+        <v>90.84905660377359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>220</v>
       </c>
@@ -2247,8 +2614,14 @@
       <c r="I60" s="2">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <v>20</v>
+      </c>
+      <c r="K60" s="4">
+        <v>11.037735849056604</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>221</v>
       </c>
@@ -2276,8 +2649,14 @@
       <c r="I61" s="2">
         <v>0.77900000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <v>60</v>
+      </c>
+      <c r="K61" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>222</v>
       </c>
@@ -2305,8 +2684,14 @@
       <c r="I62" s="2">
         <v>1.1659999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <v>100</v>
+      </c>
+      <c r="K62" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>223</v>
       </c>
@@ -2334,8 +2719,14 @@
       <c r="I63" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <v>10</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.84905660377358494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>224</v>
       </c>
@@ -2363,8 +2754,14 @@
       <c r="I64" s="2">
         <v>0.17199999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <v>40</v>
+      </c>
+      <c r="K64" s="4">
+        <v>48.679245283018865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>225</v>
       </c>
@@ -2392,8 +2789,14 @@
       <c r="I65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>226</v>
       </c>
@@ -2421,8 +2824,14 @@
       <c r="I66" s="2">
         <v>0.91200000000000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <v>90</v>
+      </c>
+      <c r="K66" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>227</v>
       </c>
@@ -2450,8 +2859,14 @@
       <c r="I67" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <v>50</v>
+      </c>
+      <c r="K67" s="4">
+        <v>21.509433962264151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>228</v>
       </c>
@@ -2479,8 +2894,14 @@
       <c r="I68" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <v>60</v>
+      </c>
+      <c r="K68" s="4">
+        <v>13.867924528301886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>229</v>
       </c>
@@ -2508,8 +2929,14 @@
       <c r="I69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>230</v>
       </c>
@@ -2537,8 +2964,14 @@
       <c r="I70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>231</v>
       </c>
@@ -2566,8 +2999,14 @@
       <c r="I71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>232</v>
       </c>
@@ -2595,8 +3034,14 @@
       <c r="I72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>233</v>
       </c>
@@ -2624,8 +3069,14 @@
       <c r="I73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>234</v>
       </c>
@@ -2653,8 +3104,14 @@
       <c r="I74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>235</v>
       </c>
@@ -2682,8 +3139,14 @@
       <c r="I75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>236</v>
       </c>
@@ -2711,8 +3174,14 @@
       <c r="I76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -2740,8 +3209,14 @@
       <c r="I77" s="2">
         <v>2.0619999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4">
+        <v>100</v>
+      </c>
+      <c r="K77" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -2769,8 +3244,14 @@
       <c r="I78" s="2">
         <v>1.6160000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4">
+        <v>100</v>
+      </c>
+      <c r="K78" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -2798,8 +3279,14 @@
       <c r="I79" s="2">
         <v>1.125</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4">
+        <v>100</v>
+      </c>
+      <c r="K79" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>4</v>
       </c>
@@ -2827,8 +3314,14 @@
       <c r="I80" s="2">
         <v>2.125</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4">
+        <v>100</v>
+      </c>
+      <c r="K80" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>85</v>
       </c>
@@ -2856,8 +3349,14 @@
       <c r="I81" s="2">
         <v>1.028</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <v>48.275862068965516</v>
+      </c>
+      <c r="K81" s="4">
+        <v>59.353348729792152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>86</v>
       </c>
@@ -2885,8 +3384,14 @@
       <c r="I82" s="2">
         <v>0.41599999999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="4">
+        <v>48.275862068965516</v>
+      </c>
+      <c r="K82" s="4">
+        <v>24.018475750577366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>87</v>
       </c>
@@ -2914,8 +3419,14 @@
       <c r="I83" s="2">
         <v>1.369</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="4">
+        <v>100</v>
+      </c>
+      <c r="K83" s="4">
+        <v>79.041570438799084</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>88</v>
       </c>
@@ -2943,8 +3454,14 @@
       <c r="I84" s="2">
         <v>0.99399999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="4">
+        <v>89.65517241379311</v>
+      </c>
+      <c r="K84" s="4">
+        <v>57.390300230946877</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>89</v>
       </c>
@@ -2972,8 +3489,14 @@
       <c r="I85" s="2">
         <v>3.9E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="4">
+        <v>10.344827586206897</v>
+      </c>
+      <c r="K85" s="4">
+        <v>2.2517321016166285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>90</v>
       </c>
@@ -3001,8 +3524,14 @@
       <c r="I86" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="4">
+        <v>6.8965517241379306</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0.46189376443418012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>91</v>
       </c>
@@ -3030,8 +3559,14 @@
       <c r="I87" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="4">
+        <v>37.931034482758619</v>
+      </c>
+      <c r="K87" s="4">
+        <v>5.1385681293302534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>92</v>
       </c>
@@ -3059,8 +3594,14 @@
       <c r="I88" s="2">
         <v>1.1779999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <v>100</v>
+      </c>
+      <c r="K88" s="4">
+        <v>68.013856812933028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>93</v>
       </c>
@@ -3088,8 +3629,14 @@
       <c r="I89" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="4">
+        <v>79.310344827586206</v>
+      </c>
+      <c r="K89" s="4">
+        <v>26.558891454965362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>94</v>
       </c>
@@ -3117,8 +3664,14 @@
       <c r="I90" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="4">
+        <v>3.4482758620689653</v>
+      </c>
+      <c r="K90" s="4">
+        <v>5.7736720554272515E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>95</v>
       </c>
@@ -3146,8 +3699,14 @@
       <c r="I91" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <v>3.4482758620689653</v>
+      </c>
+      <c r="K91" s="4">
+        <v>5.7736720554272515E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>96</v>
       </c>
@@ -3175,8 +3734,14 @@
       <c r="I92" s="2">
         <v>0.36099999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="4">
+        <v>37.931034482758619</v>
+      </c>
+      <c r="K92" s="4">
+        <v>20.842956120092378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>97</v>
       </c>
@@ -3204,8 +3769,14 @@
       <c r="I93" s="2">
         <v>1.8540000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="4">
+        <v>100</v>
+      </c>
+      <c r="K93" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>98</v>
       </c>
@@ -3233,8 +3804,14 @@
       <c r="I94" s="2">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="4">
+        <v>48.275862068965516</v>
+      </c>
+      <c r="K94" s="4">
+        <v>15.646651270207853</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>99</v>
       </c>
@@ -3260,8 +3837,14 @@
       <c r="I95" s="2">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>46.766743648960741</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>100</v>
       </c>
@@ -3289,8 +3872,14 @@
       <c r="I96" s="2">
         <v>1.7010000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="4">
+        <v>72.41379310344827</v>
+      </c>
+      <c r="K96" s="4">
+        <v>98.210161662817555</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>101</v>
       </c>
@@ -3318,8 +3907,14 @@
       <c r="I97" s="2">
         <v>1.4419999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="4">
+        <v>65.517241379310349</v>
+      </c>
+      <c r="K97" s="4">
+        <v>83.256351039260963</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>102</v>
       </c>
@@ -3347,8 +3942,14 @@
       <c r="I98" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="4">
+        <v>13.793103448275861</v>
+      </c>
+      <c r="K98" s="4">
+        <v>4.9076212471131644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>103</v>
       </c>
@@ -3376,8 +3977,14 @@
       <c r="I99" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="4">
+        <v>0</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>104</v>
       </c>
@@ -3405,8 +4012,14 @@
       <c r="I100" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="4">
+        <v>0</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>105</v>
       </c>
@@ -3434,8 +4047,14 @@
       <c r="I101" s="2">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="4">
+        <v>6.8965517241379306</v>
+      </c>
+      <c r="K101" s="4">
+        <v>5.1385681293302534</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>106</v>
       </c>
@@ -3463,8 +4082,14 @@
       <c r="I102" s="2">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="4">
+        <v>41.379310344827587</v>
+      </c>
+      <c r="K102" s="4">
+        <v>7.1593533487297929</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>107</v>
       </c>
@@ -3492,8 +4117,14 @@
       <c r="I103" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="4">
+        <v>0</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>108</v>
       </c>
@@ -3521,8 +4152,14 @@
       <c r="I104" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="4">
+        <v>0</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>109</v>
       </c>
@@ -3550,8 +4187,14 @@
       <c r="I105" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="4">
+        <v>0</v>
+      </c>
+      <c r="K105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>110</v>
       </c>
@@ -3579,8 +4222,14 @@
       <c r="I106" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="4">
+        <v>13.793103448275861</v>
+      </c>
+      <c r="K106" s="4">
+        <v>2.3094688221709005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>111</v>
       </c>
@@ -3608,8 +4257,14 @@
       <c r="I107" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="4">
+        <v>6.8965517241379306</v>
+      </c>
+      <c r="K107" s="4">
+        <v>5.7736720554272515E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>112</v>
       </c>
@@ -3637,8 +4292,14 @@
       <c r="I108" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <v>6.8965517241379306</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0.63510392609699762</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>113</v>
       </c>
@@ -3666,8 +4327,14 @@
       <c r="I109" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="4">
+        <v>3.4482758620689653</v>
+      </c>
+      <c r="K109" s="4">
+        <v>5.7736720554272515E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>114</v>
       </c>
@@ -3695,8 +4362,14 @@
       <c r="I110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="4">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>115</v>
       </c>
@@ -3724,8 +4397,14 @@
       <c r="I111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="4">
+        <v>0</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>116</v>
       </c>
@@ -3753,8 +4432,14 @@
       <c r="I112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="4">
+        <v>0</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>117</v>
       </c>
@@ -3782,8 +4467,14 @@
       <c r="I113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>118</v>
       </c>
@@ -3811,8 +4502,14 @@
       <c r="I114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="4">
+        <v>0</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>119</v>
       </c>
@@ -3840,8 +4537,14 @@
       <c r="I115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="4">
+        <v>0</v>
+      </c>
+      <c r="K115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>120</v>
       </c>
@@ -3869,8 +4572,14 @@
       <c r="I116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="4">
+        <v>0</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>121</v>
       </c>
@@ -3898,8 +4607,14 @@
       <c r="I117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="4">
+        <v>0</v>
+      </c>
+      <c r="K117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>122</v>
       </c>
@@ -3927,8 +4642,14 @@
       <c r="I118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="4">
+        <v>0</v>
+      </c>
+      <c r="K118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>123</v>
       </c>
@@ -3956,8 +4677,14 @@
       <c r="I119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="4">
+        <v>0</v>
+      </c>
+      <c r="K119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>124</v>
       </c>
@@ -3985,8 +4712,14 @@
       <c r="I120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="4">
+        <v>0</v>
+      </c>
+      <c r="K120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>125</v>
       </c>
@@ -4014,8 +4747,14 @@
       <c r="I121" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="4">
+        <v>100</v>
+      </c>
+      <c r="K121" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>126</v>
       </c>
@@ -4043,8 +4782,14 @@
       <c r="I122" s="2">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="4">
+        <v>100</v>
+      </c>
+      <c r="K122" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>127</v>
       </c>
@@ -4072,8 +4817,14 @@
       <c r="I123" s="2">
         <v>1.6859999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="4">
+        <v>100</v>
+      </c>
+      <c r="K123" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>209</v>
       </c>
@@ -4101,8 +4852,14 @@
       <c r="I124" s="2">
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="4">
+        <v>15.789473684210526</v>
+      </c>
+      <c r="K124" s="4">
+        <v>8.7235091177920143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>210</v>
       </c>
@@ -4130,8 +4887,14 @@
       <c r="I125" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="4">
+        <v>15.789473684210526</v>
+      </c>
+      <c r="K125" s="4">
+        <v>3.104977821586989</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>211</v>
       </c>
@@ -4159,8 +4922,14 @@
       <c r="I126" s="2">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="4">
+        <v>21.052631578947366</v>
+      </c>
+      <c r="K126" s="4">
+        <v>11.53277476589453</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>212</v>
       </c>
@@ -4188,8 +4957,14 @@
       <c r="I127" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="4">
+        <v>15.789473684210526</v>
+      </c>
+      <c r="K127" s="4">
+        <v>1.5524889107934945</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>213</v>
       </c>
@@ -4217,8 +4992,14 @@
       <c r="I128" s="2">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="4">
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="K128" s="4">
+        <v>1.7003449975357319</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>214</v>
       </c>
@@ -4246,8 +5027,14 @@
       <c r="I129" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="4">
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="K129" s="4">
+        <v>0.73928043371118779</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>215</v>
       </c>
@@ -4275,8 +5062,14 @@
       <c r="I130" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="4">
+        <v>21.052631578947366</v>
+      </c>
+      <c r="K130" s="4">
+        <v>0.96106456382454397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>216</v>
       </c>
@@ -4304,8 +5097,14 @@
       <c r="I131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="4">
+        <v>0</v>
+      </c>
+      <c r="K131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>217</v>
       </c>
@@ -4333,8 +5132,14 @@
       <c r="I132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="4">
+        <v>0</v>
+      </c>
+      <c r="K132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>218</v>
       </c>
@@ -4362,8 +5167,14 @@
       <c r="I133" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="4">
+        <v>0</v>
+      </c>
+      <c r="K133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>219</v>
       </c>
@@ -4391,8 +5202,14 @@
       <c r="I134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="4">
+        <v>0</v>
+      </c>
+      <c r="K134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>221</v>
       </c>
@@ -4420,8 +5237,14 @@
       <c r="I135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="4">
+        <v>0</v>
+      </c>
+      <c r="K135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>222</v>
       </c>
@@ -4449,8 +5272,14 @@
       <c r="I136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="4">
+        <v>0</v>
+      </c>
+      <c r="K136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>223</v>
       </c>
@@ -4478,8 +5307,14 @@
       <c r="I137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="4">
+        <v>0</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>225</v>
       </c>
@@ -4507,8 +5342,14 @@
       <c r="I138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="4">
+        <v>0</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>226</v>
       </c>
@@ -4536,8 +5377,14 @@
       <c r="I139" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="4">
+        <v>0</v>
+      </c>
+      <c r="K139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>227</v>
       </c>
@@ -4565,8 +5412,14 @@
       <c r="I140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="4">
+        <v>0</v>
+      </c>
+      <c r="K140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>229</v>
       </c>
@@ -4594,8 +5447,14 @@
       <c r="I141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="4">
+        <v>0</v>
+      </c>
+      <c r="K141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>230</v>
       </c>
@@ -4623,8 +5482,14 @@
       <c r="I142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="4">
+        <v>0</v>
+      </c>
+      <c r="K142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>231</v>
       </c>
@@ -4652,8 +5517,14 @@
       <c r="I143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="4">
+        <v>0</v>
+      </c>
+      <c r="K143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>233</v>
       </c>
@@ -4681,8 +5552,14 @@
       <c r="I144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="4">
+        <v>0</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>234</v>
       </c>
@@ -4710,8 +5587,14 @@
       <c r="I145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="4">
+        <v>0</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>235</v>
       </c>
@@ -4739,9 +5622,15 @@
       <c r="I146" s="2">
         <v>0</v>
       </c>
+      <c r="J146" s="4">
+        <v>0</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
+  <autoFilter ref="A1:K146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C60E42-AA91-4F74-A34A-36F6781149B0}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CBD059F-E90E-46F7-9180-EFDE57B08DA3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1st Run" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$K$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$M$146</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>percentbio</t>
+  </si>
+  <si>
+    <t>countred</t>
+  </si>
+  <si>
+    <t>biored</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,12 +522,14 @@
     <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -555,8 +563,14 @@
       <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -590,8 +604,10 @@
       <c r="K2" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -625,8 +641,10 @@
       <c r="K3" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -660,8 +678,10 @@
       <c r="K4" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -695,8 +715,10 @@
       <c r="K5" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>85</v>
       </c>
@@ -730,8 +752,14 @@
       <c r="K6" s="4">
         <v>31.808443604284815</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="4">
+        <v>76</v>
+      </c>
+      <c r="M6" s="4">
+        <v>68.191556395715196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>86</v>
       </c>
@@ -765,8 +793,14 @@
       <c r="K7" s="4">
         <v>4.9401386263390048</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="4">
+        <v>78.666666666666657</v>
+      </c>
+      <c r="M7" s="4">
+        <v>95.059861373660993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>87</v>
       </c>
@@ -800,8 +834,14 @@
       <c r="K8" s="4">
         <v>14.316320100819155</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="4">
+        <v>68</v>
+      </c>
+      <c r="M8" s="4">
+        <v>85.683679899180845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>88</v>
       </c>
@@ -835,8 +875,14 @@
       <c r="K9" s="4">
         <v>90.535601764335226</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>9.4643982356647722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>89</v>
       </c>
@@ -870,8 +916,14 @@
       <c r="K10" s="4">
         <v>62.961562696912424</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="4">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="M10" s="4">
+        <v>37.038437303087576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>90</v>
       </c>
@@ -905,8 +957,14 @@
       <c r="K11" s="4">
         <v>11.190926275992439</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <v>70.666666666666671</v>
+      </c>
+      <c r="M11" s="4">
+        <v>88.809073724007561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>91</v>
       </c>
@@ -940,8 +998,14 @@
       <c r="K12" s="4">
         <v>44.965343415248896</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="4">
+        <v>65.333333333333329</v>
+      </c>
+      <c r="M12" s="4">
+        <v>55.034656584751104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>92</v>
       </c>
@@ -975,8 +1039,14 @@
       <c r="K13" s="4">
         <v>90.586011342155018</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <v>22.666666666666668</v>
+      </c>
+      <c r="M13" s="4">
+        <v>9.4139886578449854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>93</v>
       </c>
@@ -1010,8 +1080,14 @@
       <c r="K14" s="4">
         <v>59.130434782608695</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="4">
+        <v>52</v>
+      </c>
+      <c r="M14" s="4">
+        <v>40.869565217391305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>94</v>
       </c>
@@ -1045,8 +1121,14 @@
       <c r="K15" s="4">
         <v>19.50850661625709</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <v>84</v>
+      </c>
+      <c r="M15" s="4">
+        <v>80.491493383742906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>95</v>
       </c>
@@ -1080,8 +1162,14 @@
       <c r="K16" s="4">
         <v>93.005671077504729</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="4">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="M16" s="4">
+        <v>6.9943289224952743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>96</v>
       </c>
@@ -1115,8 +1203,14 @@
       <c r="K17" s="4">
         <v>80.655324511657227</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <v>38.666666666666671</v>
+      </c>
+      <c r="M17" s="4">
+        <v>19.344675488342777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>97</v>
       </c>
@@ -1150,8 +1244,14 @@
       <c r="K18" s="4">
         <v>48.393194706994329</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="4">
+        <v>54.666666666666664</v>
+      </c>
+      <c r="M18" s="4">
+        <v>51.606805293005678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>98</v>
       </c>
@@ -1185,8 +1285,14 @@
       <c r="K19" s="4">
         <v>50.661625708884685</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <v>30.666666666666664</v>
+      </c>
+      <c r="M19" s="4">
+        <v>49.338374291115315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>99</v>
       </c>
@@ -1220,8 +1326,14 @@
       <c r="K20" s="4">
         <v>16.383112791430374</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="4">
+        <v>81.333333333333329</v>
+      </c>
+      <c r="M20" s="4">
+        <v>83.616887208569622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100</v>
       </c>
@@ -1255,8 +1367,14 @@
       <c r="K21" s="4">
         <v>59.432892249527413</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="M21" s="4">
+        <v>40.567107750472587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>101</v>
       </c>
@@ -1290,8 +1408,14 @@
       <c r="K22" s="4">
         <v>37.706364209199748</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="4">
+        <v>60</v>
+      </c>
+      <c r="M22" s="4">
+        <v>62.293635790800252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>102</v>
       </c>
@@ -1325,8 +1449,14 @@
       <c r="K23" s="4">
         <v>8.7208569628229355</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <v>89.333333333333329</v>
+      </c>
+      <c r="M23" s="4">
+        <v>91.279143037177064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>103</v>
       </c>
@@ -1360,8 +1490,14 @@
       <c r="K24" s="4">
         <v>1.1594202898550725</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="4">
+        <v>92</v>
+      </c>
+      <c r="M24" s="4">
+        <v>98.840579710144922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>104</v>
       </c>
@@ -1395,8 +1531,14 @@
       <c r="K25" s="4">
         <v>0.15122873345935728</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="4">
+        <v>97.333333333333343</v>
+      </c>
+      <c r="M25" s="4">
+        <v>99.848771266540652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>105</v>
       </c>
@@ -1430,8 +1572,14 @@
       <c r="K26" s="4">
         <v>20.516698172652802</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="4">
+        <v>60</v>
+      </c>
+      <c r="M26" s="4">
+        <v>79.483301827347191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>106</v>
       </c>
@@ -1465,8 +1613,14 @@
       <c r="K27" s="4">
         <v>3.0749842470069311</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="4">
+        <v>97.333333333333343</v>
+      </c>
+      <c r="M27" s="4">
+        <v>96.925015752993076</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>107</v>
       </c>
@@ -1500,8 +1654,14 @@
       <c r="K28" s="4">
         <v>0.35286704473850034</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="4">
+        <v>97.333333333333343</v>
+      </c>
+      <c r="M28" s="4">
+        <v>99.647132955261498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>108</v>
       </c>
@@ -1535,8 +1695,14 @@
       <c r="K29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="4">
+        <v>100</v>
+      </c>
+      <c r="M29" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>109</v>
       </c>
@@ -1570,8 +1736,14 @@
       <c r="K30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="4">
+        <v>100</v>
+      </c>
+      <c r="M30" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>110</v>
       </c>
@@ -1605,8 +1777,14 @@
       <c r="K31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="4">
+        <v>100</v>
+      </c>
+      <c r="M31" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>111</v>
       </c>
@@ -1640,8 +1818,14 @@
       <c r="K32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="4">
+        <v>100</v>
+      </c>
+      <c r="M32" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>112</v>
       </c>
@@ -1675,8 +1859,14 @@
       <c r="K33" s="4">
         <v>0.10081915563957151</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="4">
+        <v>97.333333333333343</v>
+      </c>
+      <c r="M33" s="4">
+        <v>99.89918084436043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>113</v>
       </c>
@@ -1710,8 +1900,14 @@
       <c r="K34" s="4">
         <v>7.712665406427222</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="4">
+        <v>84</v>
+      </c>
+      <c r="M34" s="4">
+        <v>92.28733459357278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>114</v>
       </c>
@@ -1745,8 +1941,14 @@
       <c r="K35" s="4">
         <v>0.15122873345935728</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="4">
+        <v>94.666666666666671</v>
+      </c>
+      <c r="M35" s="4">
+        <v>99.848771266540652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>115</v>
       </c>
@@ -1780,8 +1982,14 @@
       <c r="K36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="4">
+        <v>100</v>
+      </c>
+      <c r="M36" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>116</v>
       </c>
@@ -1815,8 +2023,14 @@
       <c r="K37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="4">
+        <v>100</v>
+      </c>
+      <c r="M37" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>117</v>
       </c>
@@ -1850,8 +2064,14 @@
       <c r="K38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="4">
+        <v>100</v>
+      </c>
+      <c r="M38" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>118</v>
       </c>
@@ -1885,8 +2105,14 @@
       <c r="K39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="4">
+        <v>100</v>
+      </c>
+      <c r="M39" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>119</v>
       </c>
@@ -1920,8 +2146,14 @@
       <c r="K40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="4">
+        <v>100</v>
+      </c>
+      <c r="M40" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>120</v>
       </c>
@@ -1955,8 +2187,14 @@
       <c r="K41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="4">
+        <v>100</v>
+      </c>
+      <c r="M41" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>121</v>
       </c>
@@ -1990,8 +2228,14 @@
       <c r="K42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="4">
+        <v>100</v>
+      </c>
+      <c r="M42" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>122</v>
       </c>
@@ -2025,8 +2269,14 @@
       <c r="K43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="4">
+        <v>100</v>
+      </c>
+      <c r="M43" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>123</v>
       </c>
@@ -2060,8 +2310,14 @@
       <c r="K44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="4">
+        <v>100</v>
+      </c>
+      <c r="M44" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>124</v>
       </c>
@@ -2095,8 +2351,14 @@
       <c r="K45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="4">
+        <v>100</v>
+      </c>
+      <c r="M45" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>125</v>
       </c>
@@ -2130,8 +2392,10 @@
       <c r="K46" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>126</v>
       </c>
@@ -2165,8 +2429,10 @@
       <c r="K47" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>127</v>
       </c>
@@ -2200,8 +2466,10 @@
       <c r="K48" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>209</v>
       </c>
@@ -2235,8 +2503,14 @@
       <c r="K49" s="4">
         <v>1.4150943396226416</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="4">
+        <v>60</v>
+      </c>
+      <c r="M49" s="4">
+        <v>98.584905660377359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>210</v>
       </c>
@@ -2270,8 +2544,14 @@
       <c r="K50" s="4">
         <v>0.84905660377358494</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="4">
+        <v>50</v>
+      </c>
+      <c r="M50" s="4">
+        <v>99.15094339622641</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>211</v>
       </c>
@@ -2305,8 +2585,14 @@
       <c r="K51" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>212</v>
       </c>
@@ -2340,8 +2626,14 @@
       <c r="K52" s="4">
         <v>39.339622641509436</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>60.660377358490571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>213</v>
       </c>
@@ -2375,8 +2667,14 @@
       <c r="K53" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="4">
+        <v>50</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>214</v>
       </c>
@@ -2410,8 +2708,14 @@
       <c r="K54" s="4">
         <v>26.037735849056602</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <v>73.962264150943398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>215</v>
       </c>
@@ -2445,8 +2749,14 @@
       <c r="K55" s="4">
         <v>5.6603773584905666</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="4">
+        <v>90</v>
+      </c>
+      <c r="M55" s="4">
+        <v>94.339622641509436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>216</v>
       </c>
@@ -2480,8 +2790,14 @@
       <c r="K56" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="4">
+        <v>100</v>
+      </c>
+      <c r="M56" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>217</v>
       </c>
@@ -2515,8 +2831,14 @@
       <c r="K57" s="4">
         <v>11.886792452830189</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="4">
+        <v>60</v>
+      </c>
+      <c r="M57" s="4">
+        <v>88.113207547169807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>218</v>
       </c>
@@ -2550,8 +2872,14 @@
       <c r="K58" s="4">
         <v>9.0566037735849072</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="4">
+        <v>90</v>
+      </c>
+      <c r="M58" s="4">
+        <v>90.943396226415103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>219</v>
       </c>
@@ -2585,8 +2913,14 @@
       <c r="K59" s="4">
         <v>90.84905660377359</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <v>9.150943396226408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>220</v>
       </c>
@@ -2620,8 +2954,14 @@
       <c r="K60" s="4">
         <v>11.037735849056604</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="4">
+        <v>80</v>
+      </c>
+      <c r="M60" s="4">
+        <v>88.962264150943398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>221</v>
       </c>
@@ -2655,8 +2995,14 @@
       <c r="K61" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="4">
+        <v>40</v>
+      </c>
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>222</v>
       </c>
@@ -2690,8 +3036,14 @@
       <c r="K62" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>223</v>
       </c>
@@ -2725,8 +3077,14 @@
       <c r="K63" s="4">
         <v>0.84905660377358494</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="4">
+        <v>90</v>
+      </c>
+      <c r="M63" s="4">
+        <v>99.15094339622641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>224</v>
       </c>
@@ -2760,8 +3118,14 @@
       <c r="K64" s="4">
         <v>48.679245283018865</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="4">
+        <v>60</v>
+      </c>
+      <c r="M64" s="4">
+        <v>51.320754716981142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>225</v>
       </c>
@@ -2795,8 +3159,14 @@
       <c r="K65" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="4">
+        <v>100</v>
+      </c>
+      <c r="M65" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>226</v>
       </c>
@@ -2830,8 +3200,14 @@
       <c r="K66" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="4">
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>227</v>
       </c>
@@ -2865,8 +3241,14 @@
       <c r="K67" s="4">
         <v>21.509433962264151</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="4">
+        <v>50</v>
+      </c>
+      <c r="M67" s="4">
+        <v>78.49056603773586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>228</v>
       </c>
@@ -2900,8 +3282,14 @@
       <c r="K68" s="4">
         <v>13.867924528301886</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="4">
+        <v>40</v>
+      </c>
+      <c r="M68" s="4">
+        <v>86.132075471698116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>229</v>
       </c>
@@ -2935,8 +3323,14 @@
       <c r="K69" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="4">
+        <v>100</v>
+      </c>
+      <c r="M69" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>230</v>
       </c>
@@ -2970,8 +3364,14 @@
       <c r="K70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="4">
+        <v>100</v>
+      </c>
+      <c r="M70" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>231</v>
       </c>
@@ -3005,8 +3405,14 @@
       <c r="K71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="4">
+        <v>100</v>
+      </c>
+      <c r="M71" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>232</v>
       </c>
@@ -3040,8 +3446,14 @@
       <c r="K72" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="4">
+        <v>100</v>
+      </c>
+      <c r="M72" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>233</v>
       </c>
@@ -3075,8 +3487,14 @@
       <c r="K73" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="4">
+        <v>100</v>
+      </c>
+      <c r="M73" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>234</v>
       </c>
@@ -3110,8 +3528,14 @@
       <c r="K74" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="4">
+        <v>100</v>
+      </c>
+      <c r="M74" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>235</v>
       </c>
@@ -3145,8 +3569,14 @@
       <c r="K75" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="4">
+        <v>100</v>
+      </c>
+      <c r="M75" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>236</v>
       </c>
@@ -3180,8 +3610,14 @@
       <c r="K76" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="4">
+        <v>100</v>
+      </c>
+      <c r="M76" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -3215,8 +3651,10 @@
       <c r="K77" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -3250,8 +3688,10 @@
       <c r="K78" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -3285,8 +3725,10 @@
       <c r="K79" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>4</v>
       </c>
@@ -3320,8 +3762,10 @@
       <c r="K80" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>85</v>
       </c>
@@ -3355,8 +3799,14 @@
       <c r="K81" s="4">
         <v>59.353348729792152</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="4">
+        <v>51.724137931034477</v>
+      </c>
+      <c r="M81" s="4">
+        <v>40.646651270207848</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>86</v>
       </c>
@@ -3390,8 +3840,14 @@
       <c r="K82" s="4">
         <v>24.018475750577366</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="4">
+        <v>51.724137931034477</v>
+      </c>
+      <c r="M82" s="4">
+        <v>75.981524249422634</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>87</v>
       </c>
@@ -3425,8 +3881,14 @@
       <c r="K83" s="4">
         <v>79.041570438799084</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="4">
+        <v>0</v>
+      </c>
+      <c r="M83" s="4">
+        <v>20.958429561200919</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>88</v>
       </c>
@@ -3460,8 +3922,14 @@
       <c r="K84" s="4">
         <v>57.390300230946877</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="4">
+        <v>10.344827586206895</v>
+      </c>
+      <c r="M84" s="4">
+        <v>42.609699769053123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>89</v>
       </c>
@@ -3495,8 +3963,14 @@
       <c r="K85" s="4">
         <v>2.2517321016166285</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="4">
+        <v>89.65517241379311</v>
+      </c>
+      <c r="M85" s="4">
+        <v>97.748267898383361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>90</v>
       </c>
@@ -3530,8 +4004,14 @@
       <c r="K86" s="4">
         <v>0.46189376443418012</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="4">
+        <v>93.103448275862064</v>
+      </c>
+      <c r="M86" s="4">
+        <v>99.53810623556582</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>91</v>
       </c>
@@ -3565,8 +4045,14 @@
       <c r="K87" s="4">
         <v>5.1385681293302534</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="4">
+        <v>62.068965517241381</v>
+      </c>
+      <c r="M87" s="4">
+        <v>94.861431870669747</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>92</v>
       </c>
@@ -3600,8 +4086,14 @@
       <c r="K88" s="4">
         <v>68.013856812933028</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="4">
+        <v>0</v>
+      </c>
+      <c r="M88" s="4">
+        <v>31.986143187066972</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>93</v>
       </c>
@@ -3635,8 +4127,14 @@
       <c r="K89" s="4">
         <v>26.558891454965362</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="4">
+        <v>20.68965517241379</v>
+      </c>
+      <c r="M89" s="4">
+        <v>73.441108545034638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>94</v>
       </c>
@@ -3670,8 +4168,14 @@
       <c r="K90" s="4">
         <v>5.7736720554272515E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="4">
+        <v>96.551724137931032</v>
+      </c>
+      <c r="M90" s="4">
+        <v>99.942263279445726</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>95</v>
       </c>
@@ -3705,8 +4209,14 @@
       <c r="K91" s="4">
         <v>5.7736720554272515E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="4">
+        <v>96.551724137931032</v>
+      </c>
+      <c r="M91" s="4">
+        <v>99.942263279445726</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>96</v>
       </c>
@@ -3740,8 +4250,14 @@
       <c r="K92" s="4">
         <v>20.842956120092378</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="4">
+        <v>62.068965517241381</v>
+      </c>
+      <c r="M92" s="4">
+        <v>79.157043879907619</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>97</v>
       </c>
@@ -3775,8 +4291,14 @@
       <c r="K93" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="4">
+        <v>0</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>98</v>
       </c>
@@ -3810,8 +4332,14 @@
       <c r="K94" s="4">
         <v>15.646651270207853</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="4">
+        <v>51.724137931034477</v>
+      </c>
+      <c r="M94" s="4">
+        <v>84.353348729792145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>99</v>
       </c>
@@ -3843,8 +4371,14 @@
       <c r="K95" s="4">
         <v>46.766743648960741</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="4">
+        <v>100</v>
+      </c>
+      <c r="M95" s="4">
+        <v>53.233256351039259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>100</v>
       </c>
@@ -3878,8 +4412,14 @@
       <c r="K96" s="4">
         <v>98.210161662817555</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="4">
+        <v>27.586206896551722</v>
+      </c>
+      <c r="M96" s="4">
+        <v>1.7898383371824478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>101</v>
       </c>
@@ -3913,8 +4453,14 @@
       <c r="K97" s="4">
         <v>83.256351039260963</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="4">
+        <v>34.482758620689658</v>
+      </c>
+      <c r="M97" s="4">
+        <v>16.743648960739034</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>102</v>
       </c>
@@ -3948,8 +4494,14 @@
       <c r="K98" s="4">
         <v>4.9076212471131644</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="4">
+        <v>86.206896551724128</v>
+      </c>
+      <c r="M98" s="4">
+        <v>95.09237875288683</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>103</v>
       </c>
@@ -3983,8 +4535,14 @@
       <c r="K99" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="4">
+        <v>100</v>
+      </c>
+      <c r="M99" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>104</v>
       </c>
@@ -4018,8 +4576,14 @@
       <c r="K100" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="4">
+        <v>100</v>
+      </c>
+      <c r="M100" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>105</v>
       </c>
@@ -4053,8 +4617,14 @@
       <c r="K101" s="4">
         <v>5.1385681293302534</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="4">
+        <v>93.103448275862064</v>
+      </c>
+      <c r="M101" s="4">
+        <v>94.861431870669747</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>106</v>
       </c>
@@ -4088,8 +4658,14 @@
       <c r="K102" s="4">
         <v>7.1593533487297929</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="4">
+        <v>58.62068965517242</v>
+      </c>
+      <c r="M102" s="4">
+        <v>92.840646651270205</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>107</v>
       </c>
@@ -4123,8 +4699,14 @@
       <c r="K103" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="4">
+        <v>100</v>
+      </c>
+      <c r="M103" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>108</v>
       </c>
@@ -4158,8 +4740,14 @@
       <c r="K104" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="4">
+        <v>100</v>
+      </c>
+      <c r="M104" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>109</v>
       </c>
@@ -4193,8 +4781,14 @@
       <c r="K105" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="4">
+        <v>100</v>
+      </c>
+      <c r="M105" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>110</v>
       </c>
@@ -4228,8 +4822,14 @@
       <c r="K106" s="4">
         <v>2.3094688221709005</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="4">
+        <v>86.206896551724128</v>
+      </c>
+      <c r="M106" s="4">
+        <v>97.690531177829101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>111</v>
       </c>
@@ -4263,8 +4863,14 @@
       <c r="K107" s="4">
         <v>5.7736720554272515E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="4">
+        <v>93.103448275862064</v>
+      </c>
+      <c r="M107" s="4">
+        <v>99.942263279445726</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>112</v>
       </c>
@@ -4298,8 +4904,14 @@
       <c r="K108" s="4">
         <v>0.63510392609699762</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="4">
+        <v>93.103448275862064</v>
+      </c>
+      <c r="M108" s="4">
+        <v>99.364896073902997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>113</v>
       </c>
@@ -4333,8 +4945,14 @@
       <c r="K109" s="4">
         <v>5.7736720554272515E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="4">
+        <v>96.551724137931032</v>
+      </c>
+      <c r="M109" s="4">
+        <v>99.942263279445726</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>114</v>
       </c>
@@ -4368,8 +4986,14 @@
       <c r="K110" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="4">
+        <v>100</v>
+      </c>
+      <c r="M110" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>115</v>
       </c>
@@ -4403,8 +5027,14 @@
       <c r="K111" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="4">
+        <v>100</v>
+      </c>
+      <c r="M111" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>116</v>
       </c>
@@ -4438,8 +5068,14 @@
       <c r="K112" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="4">
+        <v>100</v>
+      </c>
+      <c r="M112" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>117</v>
       </c>
@@ -4473,8 +5109,14 @@
       <c r="K113" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="4">
+        <v>100</v>
+      </c>
+      <c r="M113" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>118</v>
       </c>
@@ -4508,8 +5150,14 @@
       <c r="K114" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="4">
+        <v>100</v>
+      </c>
+      <c r="M114" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>119</v>
       </c>
@@ -4543,8 +5191,14 @@
       <c r="K115" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="4">
+        <v>100</v>
+      </c>
+      <c r="M115" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>120</v>
       </c>
@@ -4578,8 +5232,14 @@
       <c r="K116" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="4">
+        <v>100</v>
+      </c>
+      <c r="M116" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>121</v>
       </c>
@@ -4613,8 +5273,14 @@
       <c r="K117" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="4">
+        <v>100</v>
+      </c>
+      <c r="M117" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>122</v>
       </c>
@@ -4648,8 +5314,14 @@
       <c r="K118" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="4">
+        <v>100</v>
+      </c>
+      <c r="M118" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>123</v>
       </c>
@@ -4683,8 +5355,14 @@
       <c r="K119" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="4">
+        <v>100</v>
+      </c>
+      <c r="M119" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>124</v>
       </c>
@@ -4718,8 +5396,14 @@
       <c r="K120" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="4">
+        <v>100</v>
+      </c>
+      <c r="M120" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>125</v>
       </c>
@@ -4753,8 +5437,10 @@
       <c r="K121" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>126</v>
       </c>
@@ -4788,8 +5474,10 @@
       <c r="K122" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>127</v>
       </c>
@@ -4823,8 +5511,10 @@
       <c r="K123" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>209</v>
       </c>
@@ -4858,8 +5548,14 @@
       <c r="K124" s="4">
         <v>8.7235091177920143</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="4">
+        <v>84.210526315789465</v>
+      </c>
+      <c r="M124" s="4">
+        <v>91.27649088220798</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>210</v>
       </c>
@@ -4893,8 +5589,14 @@
       <c r="K125" s="4">
         <v>3.104977821586989</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="4">
+        <v>84.210526315789465</v>
+      </c>
+      <c r="M125" s="4">
+        <v>96.895022178413015</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>211</v>
       </c>
@@ -4928,8 +5630,14 @@
       <c r="K126" s="4">
         <v>11.53277476589453</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="4">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="M126" s="4">
+        <v>88.46722523410547</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>212</v>
       </c>
@@ -4963,8 +5671,14 @@
       <c r="K127" s="4">
         <v>1.5524889107934945</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="4">
+        <v>84.210526315789465</v>
+      </c>
+      <c r="M127" s="4">
+        <v>98.4475110892065</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>213</v>
       </c>
@@ -4998,8 +5712,14 @@
       <c r="K128" s="4">
         <v>1.7003449975357319</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="4">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="M128" s="4">
+        <v>98.299655002464277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>214</v>
       </c>
@@ -5033,8 +5753,14 @@
       <c r="K129" s="4">
         <v>0.73928043371118779</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="4">
+        <v>94.736842105263165</v>
+      </c>
+      <c r="M129" s="4">
+        <v>99.260719566288813</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>215</v>
       </c>
@@ -5068,8 +5794,14 @@
       <c r="K130" s="4">
         <v>0.96106456382454397</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="4">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="M130" s="4">
+        <v>99.03893543617545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>216</v>
       </c>
@@ -5103,8 +5835,14 @@
       <c r="K131" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="4">
+        <v>100</v>
+      </c>
+      <c r="M131" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>217</v>
       </c>
@@ -5138,8 +5876,14 @@
       <c r="K132" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="4">
+        <v>100</v>
+      </c>
+      <c r="M132" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>218</v>
       </c>
@@ -5173,8 +5917,14 @@
       <c r="K133" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="4">
+        <v>100</v>
+      </c>
+      <c r="M133" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>219</v>
       </c>
@@ -5208,8 +5958,14 @@
       <c r="K134" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="4">
+        <v>100</v>
+      </c>
+      <c r="M134" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>221</v>
       </c>
@@ -5243,8 +5999,14 @@
       <c r="K135" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="4">
+        <v>100</v>
+      </c>
+      <c r="M135" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>222</v>
       </c>
@@ -5278,8 +6040,14 @@
       <c r="K136" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="4">
+        <v>100</v>
+      </c>
+      <c r="M136" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>223</v>
       </c>
@@ -5313,8 +6081,14 @@
       <c r="K137" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="4">
+        <v>100</v>
+      </c>
+      <c r="M137" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>225</v>
       </c>
@@ -5348,8 +6122,14 @@
       <c r="K138" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="4">
+        <v>100</v>
+      </c>
+      <c r="M138" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>226</v>
       </c>
@@ -5383,8 +6163,14 @@
       <c r="K139" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="4">
+        <v>100</v>
+      </c>
+      <c r="M139" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>227</v>
       </c>
@@ -5418,8 +6204,14 @@
       <c r="K140" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="4">
+        <v>100</v>
+      </c>
+      <c r="M140" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>229</v>
       </c>
@@ -5453,8 +6245,14 @@
       <c r="K141" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="4">
+        <v>100</v>
+      </c>
+      <c r="M141" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>230</v>
       </c>
@@ -5488,8 +6286,14 @@
       <c r="K142" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="4">
+        <v>100</v>
+      </c>
+      <c r="M142" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>231</v>
       </c>
@@ -5523,8 +6327,14 @@
       <c r="K143" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="4">
+        <v>100</v>
+      </c>
+      <c r="M143" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>233</v>
       </c>
@@ -5558,8 +6368,14 @@
       <c r="K144" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="4">
+        <v>100</v>
+      </c>
+      <c r="M144" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>234</v>
       </c>
@@ -5593,8 +6409,14 @@
       <c r="K145" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="4">
+        <v>100</v>
+      </c>
+      <c r="M145" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>235</v>
       </c>
@@ -5628,9 +6450,15 @@
       <c r="K146" s="4">
         <v>0</v>
       </c>
+      <c r="L146" s="4">
+        <v>100</v>
+      </c>
+      <c r="M146" s="4">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
+  <autoFilter ref="A1:M146" xr:uid="{66F04D69-A29C-458C-8895-86265EFA5D99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CBD059F-E90E-46F7-9180-EFDE57B08DA3}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA30E90E-2DB2-4BC1-82CE-9DE2F2ED3098}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,8 +604,12 @@
       <c r="K2" s="4">
         <v>100</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -641,8 +645,12 @@
       <c r="K3" s="4">
         <v>100</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -678,8 +686,12 @@
       <c r="K4" s="4">
         <v>100</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -715,8 +727,12 @@
       <c r="K5" s="4">
         <v>100</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2392,8 +2408,12 @@
       <c r="K46" s="4">
         <v>100</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -2429,8 +2449,12 @@
       <c r="K47" s="4">
         <v>100</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -2466,8 +2490,12 @@
       <c r="K48" s="4">
         <v>100</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -3651,8 +3679,12 @@
       <c r="K77" s="4">
         <v>100</v>
       </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -3688,8 +3720,12 @@
       <c r="K78" s="4">
         <v>100</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
+      <c r="L78" s="4">
+        <v>0</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3725,8 +3761,12 @@
       <c r="K79" s="4">
         <v>100</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
+      <c r="L79" s="4">
+        <v>0</v>
+      </c>
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -3762,8 +3802,12 @@
       <c r="K80" s="4">
         <v>100</v>
       </c>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="L80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -5437,8 +5481,12 @@
       <c r="K121" s="4">
         <v>100</v>
       </c>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
+      <c r="L121" s="4">
+        <v>0</v>
+      </c>
+      <c r="M121" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -5474,8 +5522,12 @@
       <c r="K122" s="4">
         <v>100</v>
       </c>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
+      <c r="L122" s="4">
+        <v>0</v>
+      </c>
+      <c r="M122" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -5511,8 +5563,12 @@
       <c r="K123" s="4">
         <v>100</v>
       </c>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
+      <c r="L123" s="4">
+        <v>0</v>
+      </c>
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">

--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA30E90E-2DB2-4BC1-82CE-9DE2F2ED3098}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{820DD713-27F5-4308-AEC5-AAA5D647EA48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4409,15 +4409,11 @@
       <c r="I95" s="2">
         <v>0.81</v>
       </c>
-      <c r="J95" s="4">
-        <v>0</v>
-      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="4">
         <v>46.766743648960741</v>
       </c>
-      <c r="L95" s="4">
-        <v>100</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="4">
         <v>53.233256351039259</v>
       </c>

--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/Data Sheet_A92_Flumioxazin PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/PRE/Flumioxazin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{820DD713-27F5-4308-AEC5-AAA5D647EA48}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{CA397342-AB2B-4E01-9AE3-45949E7EE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FC76015-41A8-46ED-AA42-1344F9554E12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -206,6 +206,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,7 +512,7 @@
   <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,10 +603,10 @@
         <v>2.3610000000000002</v>
       </c>
       <c r="J2" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -640,10 +644,10 @@
         <v>1.8540000000000001</v>
       </c>
       <c r="J3" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
@@ -681,10 +685,10 @@
         <v>1.3340000000000001</v>
       </c>
       <c r="J4" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -722,10 +726,10 @@
         <v>2.3860000000000001</v>
       </c>
       <c r="J5" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -763,16 +767,16 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="J6" s="4">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="K6" s="4">
-        <v>31.808443604284815</v>
+        <v>0.31808443604284814</v>
       </c>
       <c r="L6" s="4">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="M6" s="4">
-        <v>68.191556395715196</v>
+        <v>0.68191556395715192</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -804,16 +808,16 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="J7" s="4">
-        <v>21.333333333333336</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="K7" s="4">
-        <v>4.9401386263390048</v>
+        <v>4.9401386263390051E-2</v>
       </c>
       <c r="L7" s="4">
-        <v>78.666666666666657</v>
+        <v>0.78666666666666663</v>
       </c>
       <c r="M7" s="4">
-        <v>95.059861373660993</v>
+        <v>0.95059861373660992</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -845,16 +849,16 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="J8" s="4">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="K8" s="4">
-        <v>14.316320100819155</v>
+        <v>0.14316320100819155</v>
       </c>
       <c r="L8" s="4">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="M8" s="4">
-        <v>85.683679899180845</v>
+        <v>0.85683679899180842</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -886,16 +890,16 @@
         <v>1.796</v>
       </c>
       <c r="J9" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>90.535601764335226</v>
+        <v>0.90535601764335227</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>9.4643982356647722</v>
+        <v>9.4643982356647727E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -927,16 +931,16 @@
         <v>1.2490000000000001</v>
       </c>
       <c r="J10" s="4">
-        <v>66.666666666666657</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="K10" s="4">
-        <v>62.961562696912424</v>
+        <v>0.62961562696912421</v>
       </c>
       <c r="L10" s="4">
-        <v>33.333333333333336</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="M10" s="4">
-        <v>37.038437303087576</v>
+        <v>0.37038437303087579</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -968,16 +972,16 @@
         <v>0.222</v>
       </c>
       <c r="J11" s="4">
-        <v>29.333333333333332</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="K11" s="4">
-        <v>11.190926275992439</v>
+        <v>0.11190926275992438</v>
       </c>
       <c r="L11" s="4">
-        <v>70.666666666666671</v>
+        <v>0.70666666666666667</v>
       </c>
       <c r="M11" s="4">
-        <v>88.809073724007561</v>
+        <v>0.88809073724007559</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1009,16 +1013,16 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="J12" s="4">
-        <v>34.666666666666671</v>
+        <v>0.34666666666666673</v>
       </c>
       <c r="K12" s="4">
-        <v>44.965343415248896</v>
+        <v>0.44965343415248893</v>
       </c>
       <c r="L12" s="4">
-        <v>65.333333333333329</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="M12" s="4">
-        <v>55.034656584751104</v>
+        <v>0.55034656584751107</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1050,16 +1054,16 @@
         <v>1.7969999999999999</v>
       </c>
       <c r="J13" s="4">
-        <v>77.333333333333329</v>
+        <v>0.77333333333333332</v>
       </c>
       <c r="K13" s="4">
-        <v>90.586011342155018</v>
+        <v>0.90586011342155015</v>
       </c>
       <c r="L13" s="4">
-        <v>22.666666666666668</v>
+        <v>0.22666666666666668</v>
       </c>
       <c r="M13" s="4">
-        <v>9.4139886578449854</v>
+        <v>9.413988657844985E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1091,16 +1095,16 @@
         <v>1.173</v>
       </c>
       <c r="J14" s="4">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="K14" s="4">
-        <v>59.130434782608695</v>
+        <v>0.59130434782608698</v>
       </c>
       <c r="L14" s="4">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="M14" s="4">
-        <v>40.869565217391305</v>
+        <v>0.40869565217391307</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1132,16 +1136,16 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="J15" s="4">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="K15" s="4">
-        <v>19.50850661625709</v>
+        <v>0.1950850661625709</v>
       </c>
       <c r="L15" s="4">
-        <v>84</v>
+        <v>0.84</v>
       </c>
       <c r="M15" s="4">
-        <v>80.491493383742906</v>
+        <v>0.80491493383742907</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1173,16 +1177,16 @@
         <v>1.845</v>
       </c>
       <c r="J16" s="4">
-        <v>66.666666666666657</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="K16" s="4">
-        <v>93.005671077504729</v>
+        <v>0.93005671077504726</v>
       </c>
       <c r="L16" s="4">
-        <v>33.333333333333336</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="M16" s="4">
-        <v>6.9943289224952743</v>
+        <v>6.9943289224952743E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1214,16 +1218,16 @@
         <v>1.6</v>
       </c>
       <c r="J17" s="4">
-        <v>61.333333333333329</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="K17" s="4">
-        <v>80.655324511657227</v>
+        <v>0.80655324511657223</v>
       </c>
       <c r="L17" s="4">
-        <v>38.666666666666671</v>
+        <v>0.38666666666666671</v>
       </c>
       <c r="M17" s="4">
-        <v>19.344675488342777</v>
+        <v>0.19344675488342777</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1255,16 +1259,16 @@
         <v>0.96</v>
       </c>
       <c r="J18" s="4">
-        <v>45.333333333333329</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="K18" s="4">
-        <v>48.393194706994329</v>
+        <v>0.4839319470699433</v>
       </c>
       <c r="L18" s="4">
-        <v>54.666666666666664</v>
+        <v>0.54666666666666663</v>
       </c>
       <c r="M18" s="4">
-        <v>51.606805293005678</v>
+        <v>0.51606805293005675</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1296,16 +1300,16 @@
         <v>1.0049999999999999</v>
       </c>
       <c r="J19" s="4">
-        <v>69.333333333333343</v>
+        <v>0.69333333333333347</v>
       </c>
       <c r="K19" s="4">
-        <v>50.661625708884685</v>
+        <v>0.50661625708884683</v>
       </c>
       <c r="L19" s="4">
-        <v>30.666666666666664</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="M19" s="4">
-        <v>49.338374291115315</v>
+        <v>0.49338374291115317</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1337,16 +1341,16 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="J20" s="4">
-        <v>18.666666666666668</v>
+        <v>0.18666666666666668</v>
       </c>
       <c r="K20" s="4">
-        <v>16.383112791430374</v>
+        <v>0.16383112791430374</v>
       </c>
       <c r="L20" s="4">
-        <v>81.333333333333329</v>
+        <v>0.81333333333333324</v>
       </c>
       <c r="M20" s="4">
-        <v>83.616887208569622</v>
+        <v>0.83616887208569624</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1378,16 +1382,16 @@
         <v>1.179</v>
       </c>
       <c r="J21" s="4">
-        <v>66.666666666666657</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="K21" s="4">
-        <v>59.432892249527413</v>
+        <v>0.59432892249527414</v>
       </c>
       <c r="L21" s="4">
-        <v>33.333333333333336</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="M21" s="4">
-        <v>40.567107750472587</v>
+        <v>0.40567107750472586</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1419,16 +1423,16 @@
         <v>0.748</v>
       </c>
       <c r="J22" s="4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="4">
-        <v>37.706364209199748</v>
+        <v>0.3770636420919975</v>
       </c>
       <c r="L22" s="4">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M22" s="4">
-        <v>62.293635790800252</v>
+        <v>0.6229363579080025</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1460,16 +1464,16 @@
         <v>0.17299999999999999</v>
       </c>
       <c r="J23" s="4">
-        <v>10.666666666666668</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="K23" s="4">
-        <v>8.7208569628229355</v>
+        <v>8.7208569628229357E-2</v>
       </c>
       <c r="L23" s="4">
-        <v>89.333333333333329</v>
+        <v>0.89333333333333331</v>
       </c>
       <c r="M23" s="4">
-        <v>91.279143037177064</v>
+        <v>0.91279143037177068</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1501,16 +1505,16 @@
         <v>2.3E-2</v>
       </c>
       <c r="J24" s="4">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="K24" s="4">
-        <v>1.1594202898550725</v>
+        <v>1.1594202898550725E-2</v>
       </c>
       <c r="L24" s="4">
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="M24" s="4">
-        <v>98.840579710144922</v>
+        <v>0.98840579710144927</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1542,16 +1546,16 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J25" s="4">
-        <v>2.666666666666667</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="K25" s="4">
-        <v>0.15122873345935728</v>
+        <v>1.5122873345935729E-3</v>
       </c>
       <c r="L25" s="4">
-        <v>97.333333333333343</v>
+        <v>0.97333333333333338</v>
       </c>
       <c r="M25" s="4">
-        <v>99.848771266540652</v>
+        <v>0.99848771266540648</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1583,16 +1587,16 @@
         <v>0.40699999999999997</v>
       </c>
       <c r="J26" s="4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="K26" s="4">
-        <v>20.516698172652802</v>
+        <v>0.20516698172652803</v>
       </c>
       <c r="L26" s="4">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M26" s="4">
-        <v>79.483301827347191</v>
+        <v>0.79483301827347186</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1624,16 +1628,16 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="J27" s="4">
-        <v>2.666666666666667</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="K27" s="4">
-        <v>3.0749842470069311</v>
+        <v>3.0749842470069309E-2</v>
       </c>
       <c r="L27" s="4">
-        <v>97.333333333333343</v>
+        <v>0.97333333333333338</v>
       </c>
       <c r="M27" s="4">
-        <v>96.925015752993076</v>
+        <v>0.96925015752993071</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1665,16 +1669,16 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J28" s="4">
-        <v>2.666666666666667</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="K28" s="4">
-        <v>0.35286704473850034</v>
+        <v>3.5286704473850034E-3</v>
       </c>
       <c r="L28" s="4">
-        <v>97.333333333333343</v>
+        <v>0.97333333333333338</v>
       </c>
       <c r="M28" s="4">
-        <v>99.647132955261498</v>
+        <v>0.99647132955261497</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1712,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M29" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1753,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M30" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1794,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M31" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1835,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M32" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1870,16 +1874,16 @@
         <v>2E-3</v>
       </c>
       <c r="J33" s="4">
-        <v>2.666666666666667</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="K33" s="4">
-        <v>0.10081915563957151</v>
+        <v>1.0081915563957152E-3</v>
       </c>
       <c r="L33" s="4">
-        <v>97.333333333333343</v>
+        <v>0.97333333333333338</v>
       </c>
       <c r="M33" s="4">
-        <v>99.89918084436043</v>
+        <v>0.99899180844360425</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1911,16 +1915,16 @@
         <v>0.153</v>
       </c>
       <c r="J34" s="4">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="K34" s="4">
-        <v>7.712665406427222</v>
+        <v>7.7126654064272215E-2</v>
       </c>
       <c r="L34" s="4">
-        <v>84</v>
+        <v>0.84</v>
       </c>
       <c r="M34" s="4">
-        <v>92.28733459357278</v>
+        <v>0.92287334593572778</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1952,16 +1956,16 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J35" s="4">
-        <v>5.3333333333333339</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="K35" s="4">
-        <v>0.15122873345935728</v>
+        <v>1.5122873345935729E-3</v>
       </c>
       <c r="L35" s="4">
-        <v>94.666666666666671</v>
+        <v>0.94666666666666677</v>
       </c>
       <c r="M35" s="4">
-        <v>99.848771266540652</v>
+        <v>0.99848771266540648</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1999,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M36" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2040,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M37" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2081,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2122,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M39" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2163,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2204,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2245,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2286,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2327,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2368,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2403,10 +2407,10 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="J46" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4">
         <v>0</v>
@@ -2444,10 +2448,10 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="J47" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4">
         <v>0</v>
@@ -2485,10 +2489,10 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="J48" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K48" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4">
         <v>0</v>
@@ -2526,16 +2530,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J49" s="4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="K49" s="4">
-        <v>1.4150943396226416</v>
+        <v>1.4150943396226417E-2</v>
       </c>
       <c r="L49" s="4">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M49" s="4">
-        <v>98.584905660377359</v>
+        <v>0.98584905660377364</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2567,16 +2571,16 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J50" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="K50" s="4">
-        <v>0.84905660377358494</v>
+        <v>8.4905660377358489E-3</v>
       </c>
       <c r="L50" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="M50" s="4">
-        <v>99.15094339622641</v>
+        <v>0.9915094339622641</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2608,10 +2612,10 @@
         <v>1.1459999999999999</v>
       </c>
       <c r="J51" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L51" s="4">
         <v>0</v>
@@ -2649,16 +2653,16 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="J52" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K52" s="4">
-        <v>39.339622641509436</v>
+        <v>0.39339622641509436</v>
       </c>
       <c r="L52" s="4">
         <v>0</v>
       </c>
       <c r="M52" s="4">
-        <v>60.660377358490571</v>
+        <v>0.60660377358490569</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2690,13 +2694,13 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="J53" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="K53" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L53" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
@@ -2731,16 +2735,16 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="J54" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K54" s="4">
-        <v>26.037735849056602</v>
+        <v>0.26037735849056604</v>
       </c>
       <c r="L54" s="4">
         <v>0</v>
       </c>
       <c r="M54" s="4">
-        <v>73.962264150943398</v>
+        <v>0.73962264150943402</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2772,16 +2776,16 @@
         <v>0.02</v>
       </c>
       <c r="J55" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K55" s="4">
-        <v>5.6603773584905666</v>
+        <v>5.6603773584905669E-2</v>
       </c>
       <c r="L55" s="4">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="M55" s="4">
-        <v>94.339622641509436</v>
+        <v>0.94339622641509435</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2819,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M56" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2854,16 +2858,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="J57" s="4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="K57" s="4">
-        <v>11.886792452830189</v>
+        <v>0.11886792452830189</v>
       </c>
       <c r="L57" s="4">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M57" s="4">
-        <v>88.113207547169807</v>
+        <v>0.88113207547169803</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2895,16 +2899,16 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="J58" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K58" s="4">
-        <v>9.0566037735849072</v>
+        <v>9.0566037735849078E-2</v>
       </c>
       <c r="L58" s="4">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="M58" s="4">
-        <v>90.943396226415103</v>
+        <v>0.90943396226415107</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2936,16 +2940,16 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="J59" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K59" s="4">
-        <v>90.84905660377359</v>
+        <v>0.90849056603773592</v>
       </c>
       <c r="L59" s="4">
         <v>0</v>
       </c>
       <c r="M59" s="4">
-        <v>9.150943396226408</v>
+        <v>9.1509433962264075E-2</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -2977,16 +2981,16 @@
         <v>3.9E-2</v>
       </c>
       <c r="J60" s="4">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="K60" s="4">
-        <v>11.037735849056604</v>
+        <v>0.11037735849056604</v>
       </c>
       <c r="L60" s="4">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="M60" s="4">
-        <v>88.962264150943398</v>
+        <v>0.88962264150943393</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3018,13 +3022,13 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="J61" s="4">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="K61" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L61" s="4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
@@ -3059,10 +3063,10 @@
         <v>1.1659999999999999</v>
       </c>
       <c r="J62" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K62" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L62" s="4">
         <v>0</v>
@@ -3100,16 +3104,16 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J63" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="K63" s="4">
-        <v>0.84905660377358494</v>
+        <v>8.4905660377358489E-3</v>
       </c>
       <c r="L63" s="4">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="M63" s="4">
-        <v>99.15094339622641</v>
+        <v>0.9915094339622641</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3141,16 +3145,16 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="J64" s="4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="K64" s="4">
-        <v>48.679245283018865</v>
+        <v>0.48679245283018863</v>
       </c>
       <c r="L64" s="4">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="M64" s="4">
-        <v>51.320754716981142</v>
+        <v>0.51320754716981143</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3188,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M65" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3223,13 +3227,13 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="J66" s="4">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="K66" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L66" s="4">
-        <v>9.9999999999999982</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
@@ -3264,16 +3268,16 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="J67" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="K67" s="4">
-        <v>21.509433962264151</v>
+        <v>0.21509433962264152</v>
       </c>
       <c r="L67" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="M67" s="4">
-        <v>78.49056603773586</v>
+        <v>0.78490566037735865</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3305,16 +3309,16 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="J68" s="4">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="K68" s="4">
-        <v>13.867924528301886</v>
+        <v>0.13867924528301886</v>
       </c>
       <c r="L68" s="4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="M68" s="4">
-        <v>86.132075471698116</v>
+        <v>0.86132075471698111</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3352,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M69" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3393,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M70" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3434,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M71" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3475,10 +3479,10 @@
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M72" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3516,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M73" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3557,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M74" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3598,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M75" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3639,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M76" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3674,10 +3678,10 @@
         <v>2.0619999999999998</v>
       </c>
       <c r="J77" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K77" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L77" s="4">
         <v>0</v>
@@ -3715,10 +3719,10 @@
         <v>1.6160000000000001</v>
       </c>
       <c r="J78" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K78" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L78" s="4">
         <v>0</v>
@@ -3756,10 +3760,10 @@
         <v>1.125</v>
       </c>
       <c r="J79" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K79" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L79" s="4">
         <v>0</v>
@@ -3797,10 +3801,10 @@
         <v>2.125</v>
       </c>
       <c r="J80" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K80" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L80" s="4">
         <v>0</v>
@@ -3838,16 +3842,16 @@
         <v>1.028</v>
       </c>
       <c r="J81" s="4">
-        <v>48.275862068965516</v>
+        <v>0.48275862068965514</v>
       </c>
       <c r="K81" s="4">
-        <v>59.353348729792152</v>
+        <v>0.59353348729792155</v>
       </c>
       <c r="L81" s="4">
-        <v>51.724137931034477</v>
+        <v>0.51724137931034475</v>
       </c>
       <c r="M81" s="4">
-        <v>40.646651270207848</v>
+        <v>0.40646651270207845</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3879,16 +3883,16 @@
         <v>0.41599999999999998</v>
       </c>
       <c r="J82" s="4">
-        <v>48.275862068965516</v>
+        <v>0.48275862068965514</v>
       </c>
       <c r="K82" s="4">
-        <v>24.018475750577366</v>
+        <v>0.24018475750577367</v>
       </c>
       <c r="L82" s="4">
-        <v>51.724137931034477</v>
+        <v>0.51724137931034475</v>
       </c>
       <c r="M82" s="4">
-        <v>75.981524249422634</v>
+        <v>0.75981524249422638</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3920,16 +3924,16 @@
         <v>1.369</v>
       </c>
       <c r="J83" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K83" s="4">
-        <v>79.041570438799084</v>
+        <v>0.7904157043879908</v>
       </c>
       <c r="L83" s="4">
         <v>0</v>
       </c>
       <c r="M83" s="4">
-        <v>20.958429561200919</v>
+        <v>0.2095842956120092</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3961,16 +3965,16 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="J84" s="4">
-        <v>89.65517241379311</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="K84" s="4">
-        <v>57.390300230946877</v>
+        <v>0.57390300230946878</v>
       </c>
       <c r="L84" s="4">
-        <v>10.344827586206895</v>
+        <v>0.10344827586206895</v>
       </c>
       <c r="M84" s="4">
-        <v>42.609699769053123</v>
+        <v>0.42609699769053122</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4002,16 +4006,16 @@
         <v>3.9E-2</v>
       </c>
       <c r="J85" s="4">
-        <v>10.344827586206897</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="K85" s="4">
-        <v>2.2517321016166285</v>
+        <v>2.2517321016166283E-2</v>
       </c>
       <c r="L85" s="4">
-        <v>89.65517241379311</v>
+        <v>0.89655172413793105</v>
       </c>
       <c r="M85" s="4">
-        <v>97.748267898383361</v>
+        <v>0.97748267898383356</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4043,16 +4047,16 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="J86" s="4">
-        <v>6.8965517241379306</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="K86" s="4">
-        <v>0.46189376443418012</v>
+        <v>4.6189376443418013E-3</v>
       </c>
       <c r="L86" s="4">
-        <v>93.103448275862064</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="M86" s="4">
-        <v>99.53810623556582</v>
+        <v>0.99538106235565815</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4084,16 +4088,16 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="J87" s="4">
-        <v>37.931034482758619</v>
+        <v>0.37931034482758619</v>
       </c>
       <c r="K87" s="4">
-        <v>5.1385681293302534</v>
+        <v>5.1385681293302538E-2</v>
       </c>
       <c r="L87" s="4">
-        <v>62.068965517241381</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="M87" s="4">
-        <v>94.861431870669747</v>
+        <v>0.94861431870669743</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4125,16 +4129,16 @@
         <v>1.1779999999999999</v>
       </c>
       <c r="J88" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K88" s="4">
-        <v>68.013856812933028</v>
+        <v>0.68013856812933027</v>
       </c>
       <c r="L88" s="4">
         <v>0</v>
       </c>
       <c r="M88" s="4">
-        <v>31.986143187066972</v>
+        <v>0.31986143187066973</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4166,16 +4170,16 @@
         <v>0.46</v>
       </c>
       <c r="J89" s="4">
-        <v>79.310344827586206</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="K89" s="4">
-        <v>26.558891454965362</v>
+        <v>0.26558891454965361</v>
       </c>
       <c r="L89" s="4">
-        <v>20.68965517241379</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="M89" s="4">
-        <v>73.441108545034638</v>
+        <v>0.73441108545034639</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4207,16 +4211,16 @@
         <v>1E-3</v>
       </c>
       <c r="J90" s="4">
-        <v>3.4482758620689653</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="K90" s="4">
-        <v>5.7736720554272515E-2</v>
+        <v>5.7736720554272516E-4</v>
       </c>
       <c r="L90" s="4">
-        <v>96.551724137931032</v>
+        <v>0.96551724137931028</v>
       </c>
       <c r="M90" s="4">
-        <v>99.942263279445726</v>
+        <v>0.99942263279445731</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4248,16 +4252,16 @@
         <v>1E-3</v>
       </c>
       <c r="J91" s="4">
-        <v>3.4482758620689653</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="K91" s="4">
-        <v>5.7736720554272515E-2</v>
+        <v>5.7736720554272516E-4</v>
       </c>
       <c r="L91" s="4">
-        <v>96.551724137931032</v>
+        <v>0.96551724137931028</v>
       </c>
       <c r="M91" s="4">
-        <v>99.942263279445726</v>
+        <v>0.99942263279445731</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4289,16 +4293,16 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="J92" s="4">
-        <v>37.931034482758619</v>
+        <v>0.37931034482758619</v>
       </c>
       <c r="K92" s="4">
-        <v>20.842956120092378</v>
+        <v>0.20842956120092379</v>
       </c>
       <c r="L92" s="4">
-        <v>62.068965517241381</v>
+        <v>0.62068965517241381</v>
       </c>
       <c r="M92" s="4">
-        <v>79.157043879907619</v>
+        <v>0.79157043879907618</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4330,10 +4334,10 @@
         <v>1.8540000000000001</v>
       </c>
       <c r="J93" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K93" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L93" s="4">
         <v>0</v>
@@ -4371,16 +4375,16 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="J94" s="4">
-        <v>48.275862068965516</v>
+        <v>0.48275862068965514</v>
       </c>
       <c r="K94" s="4">
-        <v>15.646651270207853</v>
+        <v>0.15646651270207854</v>
       </c>
       <c r="L94" s="4">
-        <v>51.724137931034477</v>
+        <v>0.51724137931034475</v>
       </c>
       <c r="M94" s="4">
-        <v>84.353348729792145</v>
+        <v>0.84353348729792144</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4411,11 +4415,11 @@
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4">
-        <v>46.766743648960741</v>
+        <v>0.4676674364896074</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4">
-        <v>53.233256351039259</v>
+        <v>0.5323325635103926</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4447,16 +4451,16 @@
         <v>1.7010000000000001</v>
       </c>
       <c r="J96" s="4">
-        <v>72.41379310344827</v>
+        <v>0.72413793103448265</v>
       </c>
       <c r="K96" s="4">
-        <v>98.210161662817555</v>
+        <v>0.98210161662817552</v>
       </c>
       <c r="L96" s="4">
-        <v>27.586206896551722</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="M96" s="4">
-        <v>1.7898383371824478</v>
+        <v>1.7898383371824478E-2</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4488,16 +4492,16 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="J97" s="4">
-        <v>65.517241379310349</v>
+        <v>0.65517241379310354</v>
       </c>
       <c r="K97" s="4">
-        <v>83.256351039260963</v>
+        <v>0.83256351039260967</v>
       </c>
       <c r="L97" s="4">
-        <v>34.482758620689658</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="M97" s="4">
-        <v>16.743648960739034</v>
+        <v>0.16743648960739033</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4529,16 +4533,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="J98" s="4">
-        <v>13.793103448275861</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="K98" s="4">
-        <v>4.9076212471131644</v>
+        <v>4.9076212471131642E-2</v>
       </c>
       <c r="L98" s="4">
-        <v>86.206896551724128</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="M98" s="4">
-        <v>95.09237875288683</v>
+        <v>0.9509237875288683</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4576,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="L99" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M99" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4617,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="L100" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M100" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4652,16 +4656,16 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="J101" s="4">
-        <v>6.8965517241379306</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="K101" s="4">
-        <v>5.1385681293302534</v>
+        <v>5.1385681293302538E-2</v>
       </c>
       <c r="L101" s="4">
-        <v>93.103448275862064</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="M101" s="4">
-        <v>94.861431870669747</v>
+        <v>0.94861431870669743</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4693,16 +4697,16 @@
         <v>0.124</v>
       </c>
       <c r="J102" s="4">
-        <v>41.379310344827587</v>
+        <v>0.41379310344827586</v>
       </c>
       <c r="K102" s="4">
-        <v>7.1593533487297929</v>
+        <v>7.1593533487297925E-2</v>
       </c>
       <c r="L102" s="4">
-        <v>58.62068965517242</v>
+        <v>0.5862068965517242</v>
       </c>
       <c r="M102" s="4">
-        <v>92.840646651270205</v>
+        <v>0.92840646651270209</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4740,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="L103" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M103" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4781,10 +4785,10 @@
         <v>0</v>
       </c>
       <c r="L104" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M104" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4822,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="L105" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M105" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4857,16 +4861,16 @@
         <v>0.04</v>
       </c>
       <c r="J106" s="4">
-        <v>13.793103448275861</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="K106" s="4">
-        <v>2.3094688221709005</v>
+        <v>2.3094688221709004E-2</v>
       </c>
       <c r="L106" s="4">
-        <v>86.206896551724128</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="M106" s="4">
-        <v>97.690531177829101</v>
+        <v>0.97690531177829099</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4898,16 +4902,16 @@
         <v>1E-3</v>
       </c>
       <c r="J107" s="4">
-        <v>6.8965517241379306</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="K107" s="4">
-        <v>5.7736720554272515E-2</v>
+        <v>5.7736720554272516E-4</v>
       </c>
       <c r="L107" s="4">
-        <v>93.103448275862064</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="M107" s="4">
-        <v>99.942263279445726</v>
+        <v>0.99942263279445731</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4939,16 +4943,16 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="J108" s="4">
-        <v>6.8965517241379306</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="K108" s="4">
-        <v>0.63510392609699762</v>
+        <v>6.3510392609699758E-3</v>
       </c>
       <c r="L108" s="4">
-        <v>93.103448275862064</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="M108" s="4">
-        <v>99.364896073902997</v>
+        <v>0.99364896073902997</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4980,16 +4984,16 @@
         <v>1E-3</v>
       </c>
       <c r="J109" s="4">
-        <v>3.4482758620689653</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="K109" s="4">
-        <v>5.7736720554272515E-2</v>
+        <v>5.7736720554272516E-4</v>
       </c>
       <c r="L109" s="4">
-        <v>96.551724137931032</v>
+        <v>0.96551724137931028</v>
       </c>
       <c r="M109" s="4">
-        <v>99.942263279445726</v>
+        <v>0.99942263279445731</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5027,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="L110" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M110" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5068,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="L111" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M111" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5109,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="L112" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M112" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5150,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="L113" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M113" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5191,10 +5195,10 @@
         <v>0</v>
       </c>
       <c r="L114" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M114" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5232,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="L115" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M115" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5273,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="L116" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M116" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5314,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="L117" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M117" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5355,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="L118" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M118" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5396,10 +5400,10 @@
         <v>0</v>
       </c>
       <c r="L119" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M119" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5437,10 +5441,10 @@
         <v>0</v>
       </c>
       <c r="L120" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M120" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5472,10 +5476,10 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="J121" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K121" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L121" s="4">
         <v>0</v>
@@ -5513,10 +5517,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="J122" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K122" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L122" s="4">
         <v>0</v>
@@ -5554,10 +5558,10 @@
         <v>1.6859999999999999</v>
       </c>
       <c r="J123" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K123" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L123" s="4">
         <v>0</v>
@@ -5595,16 +5599,16 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="J124" s="4">
-        <v>15.789473684210526</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="K124" s="4">
-        <v>8.7235091177920143</v>
+        <v>8.7235091177920138E-2</v>
       </c>
       <c r="L124" s="4">
-        <v>84.210526315789465</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="M124" s="4">
-        <v>91.27649088220798</v>
+        <v>0.91276490882207983</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5636,16 +5640,16 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="J125" s="4">
-        <v>15.789473684210526</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="K125" s="4">
-        <v>3.104977821586989</v>
+        <v>3.1049778215869892E-2</v>
       </c>
       <c r="L125" s="4">
-        <v>84.210526315789465</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="M125" s="4">
-        <v>96.895022178413015</v>
+        <v>0.96895022178413015</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5677,16 +5681,16 @@
         <v>0.156</v>
       </c>
       <c r="J126" s="4">
-        <v>21.052631578947366</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="K126" s="4">
-        <v>11.53277476589453</v>
+        <v>0.1153277476589453</v>
       </c>
       <c r="L126" s="4">
-        <v>78.94736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="M126" s="4">
-        <v>88.46722523410547</v>
+        <v>0.88467225234105473</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5718,16 +5722,16 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J127" s="4">
-        <v>15.789473684210526</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="K127" s="4">
-        <v>1.5524889107934945</v>
+        <v>1.5524889107934946E-2</v>
       </c>
       <c r="L127" s="4">
-        <v>84.210526315789465</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="M127" s="4">
-        <v>98.4475110892065</v>
+        <v>0.98447511089206496</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5759,16 +5763,16 @@
         <v>2.3E-2</v>
       </c>
       <c r="J128" s="4">
-        <v>5.2631578947368416</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K128" s="4">
-        <v>1.7003449975357319</v>
+        <v>1.700344997535732E-2</v>
       </c>
       <c r="L128" s="4">
-        <v>94.736842105263165</v>
+        <v>0.94736842105263164</v>
       </c>
       <c r="M128" s="4">
-        <v>98.299655002464277</v>
+        <v>0.98299655002464281</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5800,16 +5804,16 @@
         <v>0.01</v>
       </c>
       <c r="J129" s="4">
-        <v>5.2631578947368416</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K129" s="4">
-        <v>0.73928043371118779</v>
+        <v>7.3928043371118777E-3</v>
       </c>
       <c r="L129" s="4">
-        <v>94.736842105263165</v>
+        <v>0.94736842105263164</v>
       </c>
       <c r="M129" s="4">
-        <v>99.260719566288813</v>
+        <v>0.99260719566288813</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5841,16 +5845,16 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="J130" s="4">
-        <v>21.052631578947366</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="K130" s="4">
-        <v>0.96106456382454397</v>
+        <v>9.6106456382454401E-3</v>
       </c>
       <c r="L130" s="4">
-        <v>78.94736842105263</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="M130" s="4">
-        <v>99.03893543617545</v>
+        <v>0.99038935436175446</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5888,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="L131" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M131" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5929,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="L132" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M132" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -5970,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="L133" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M133" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6011,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="L134" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M134" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6052,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="L135" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M135" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6093,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="L136" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M136" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6134,10 +6138,10 @@
         <v>0</v>
       </c>
       <c r="L137" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M137" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6175,10 +6179,10 @@
         <v>0</v>
       </c>
       <c r="L138" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M138" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6216,10 +6220,10 @@
         <v>0</v>
       </c>
       <c r="L139" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M139" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6257,10 +6261,10 @@
         <v>0</v>
       </c>
       <c r="L140" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M140" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6298,10 +6302,10 @@
         <v>0</v>
       </c>
       <c r="L141" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M141" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6339,10 +6343,10 @@
         <v>0</v>
       </c>
       <c r="L142" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M142" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6380,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="L143" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M143" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6421,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="L144" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M144" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6462,10 +6466,10 @@
         <v>0</v>
       </c>
       <c r="L145" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M145" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6503,10 +6507,10 @@
         <v>0</v>
       </c>
       <c r="L146" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M146" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
